--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\Test\.USE THIS TO TEST\InputData\land\FoFObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\FoFObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B305FAA-C9C8-417A-91E4-BC3B025F465D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1425" windowWidth="13560" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -38,58 +29,64 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Fraction of Forest Owned</t>
+    <t>National Forest</t>
+  </si>
+  <si>
+    <t>Other public</t>
+  </si>
+  <si>
+    <t>Forest industry</t>
+  </si>
+  <si>
+    <t>Other private</t>
+  </si>
+  <si>
+    <t>Timber land</t>
+  </si>
+  <si>
+    <t>Reserved forest</t>
+  </si>
+  <si>
+    <t>Other forest</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Ownership of Forest Land (million hectares)</t>
+  </si>
+  <si>
+    <t>U.S. Forest Service</t>
+  </si>
+  <si>
+    <t>U.S. Forest Facts and Historical Trends</t>
+  </si>
+  <si>
+    <t>http://www.fia.fs.fed.us/library/briefings-summaries-overviews/docs/ForestFactsMetric.pdf</t>
+  </si>
+  <si>
+    <t>Page 6</t>
   </si>
   <si>
     <t>government</t>
   </si>
   <si>
-    <t xml:space="preserve">Ownership of Forest Land </t>
-  </si>
-  <si>
-    <t>Government share</t>
-  </si>
-  <si>
-    <t>Consumers/households</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>USDA and U.S. Forest Service</t>
-  </si>
-  <si>
-    <t>Forests of Oregon</t>
-  </si>
-  <si>
-    <t>https://usfs.maps.arcgis.com/apps/MapJournal/index.html?appid=0c0d40567089480684aedcceb88387eb#</t>
-  </si>
-  <si>
-    <t>Oregon Forest Land Ownership</t>
-  </si>
-  <si>
-    <t>Section: Ownership</t>
-  </si>
-  <si>
-    <t>National Forests</t>
-  </si>
-  <si>
-    <t>Bureau of Land Mgmt.</t>
-  </si>
-  <si>
-    <t>Other Federal</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>County-Municipal</t>
-  </si>
-  <si>
-    <t>Private Corporate</t>
-  </si>
-  <si>
-    <t>Private Noncorporate</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The amount of government-owned forest is provided in the table.</t>
+  </si>
+  <si>
+    <t>We assume that all privately-owned forest used for timber land is owned</t>
+  </si>
+  <si>
+    <t>by industry, and half of the remaining privately-owned forest land is owned</t>
+  </si>
+  <si>
+    <t>by industry.  The remainder is owned by consumers.</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
   </si>
   <si>
     <t>nonenergy industries</t>
@@ -98,9 +95,6 @@
     <t>labor and consumers</t>
   </si>
   <si>
-    <t>foreign entities</t>
-  </si>
-  <si>
     <t>electricity suppliers</t>
   </si>
   <si>
@@ -116,17 +110,41 @@
     <t>other energy suppliers</t>
   </si>
   <si>
-    <t>total</t>
+    <t>Though some industry-owned timber land might be used to</t>
+  </si>
+  <si>
+    <t>produce biomass, but not all biomass is wood, and</t>
+  </si>
+  <si>
+    <t>much of the wood biomass is waste (bark, sawdust, chips, scrap,</t>
+  </si>
+  <si>
+    <t>and paper mill residues), which is not the main product</t>
+  </si>
+  <si>
+    <t>of the timber lands.  Accordingly, we assign timber land</t>
+  </si>
+  <si>
+    <t>ownership to "nonenergy industries" rather than assigning</t>
+  </si>
+  <si>
+    <t>a share to "biomass and biofuel suppliers."</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,25 +168,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,14 +193,20 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -211,72 +223,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>501315</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE80864-4194-43A9-AACA-30C653601507}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2762250" y="152400"/>
-          <a:ext cx="5416215" cy="4229099"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,23 +301,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,23 +336,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,62 +511,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://usfs.maps.arcgis.com/apps/MapJournal/index.html?appid=0c0d40567089480684aedcceb88387eb" xr:uid="{3315A321-9227-4349-8D9B-23E7D2E0195B}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -662,216 +626,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
-        <f>SUM(B3:B7)</f>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B15" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
-        <f>B11</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24">
-        <f>B9</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="7">
-        <f>SUM(B22:B24)</f>
-        <v>1</v>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <f>Data!$B$22</f>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.42384105960264901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3">
-        <f>Data!$B$23</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.52814569536423839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>4.8013245033112585E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
-        <f>Data!$B$24</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\FoFObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\Test\.USE THIS TO TEST\InputData\land\FoFObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B305FAA-C9C8-417A-91E4-BC3B025F465D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
+    <workbookView xWindow="1485" yWindow="1425" windowWidth="13560" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -29,72 +38,69 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>National Forest</t>
-  </si>
-  <si>
-    <t>Other public</t>
-  </si>
-  <si>
-    <t>Forest industry</t>
-  </si>
-  <si>
-    <t>Other private</t>
-  </si>
-  <si>
-    <t>Timber land</t>
-  </si>
-  <si>
-    <t>Reserved forest</t>
-  </si>
-  <si>
-    <t>Other forest</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t>Ownership of Forest Land (million hectares)</t>
-  </si>
-  <si>
-    <t>U.S. Forest Service</t>
-  </si>
-  <si>
-    <t>U.S. Forest Facts and Historical Trends</t>
-  </si>
-  <si>
-    <t>http://www.fia.fs.fed.us/library/briefings-summaries-overviews/docs/ForestFactsMetric.pdf</t>
-  </si>
-  <si>
-    <t>Page 6</t>
+    <t>Fraction of Forest Owned</t>
   </si>
   <si>
     <t>government</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>The amount of government-owned forest is provided in the table.</t>
-  </si>
-  <si>
-    <t>We assume that all privately-owned forest used for timber land is owned</t>
-  </si>
-  <si>
-    <t>by industry, and half of the remaining privately-owned forest land is owned</t>
-  </si>
-  <si>
-    <t>by industry.  The remainder is owned by consumers.</t>
+    <t xml:space="preserve">Ownership of Forest Land </t>
+  </si>
+  <si>
+    <t>Government share</t>
+  </si>
+  <si>
+    <t>Consumers/households</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>USDA and U.S. Forest Service</t>
+  </si>
+  <si>
+    <t>Forests of Oregon</t>
+  </si>
+  <si>
+    <t>https://usfs.maps.arcgis.com/apps/MapJournal/index.html?appid=0c0d40567089480684aedcceb88387eb#</t>
+  </si>
+  <si>
+    <t>Oregon Forest Land Ownership</t>
+  </si>
+  <si>
+    <t>Section: Ownership</t>
+  </si>
+  <si>
+    <t>National Forests</t>
+  </si>
+  <si>
+    <t>Bureau of Land Mgmt.</t>
+  </si>
+  <si>
+    <t>Other Federal</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>County-Municipal</t>
+  </si>
+  <si>
+    <t>Private Corporate</t>
+  </si>
+  <si>
+    <t>Private Noncorporate</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
   </si>
   <si>
     <t>foreign entities</t>
   </si>
   <si>
-    <t>nonenergy industries</t>
-  </si>
-  <si>
-    <t>labor and consumers</t>
-  </si>
-  <si>
     <t>electricity suppliers</t>
   </si>
   <si>
@@ -110,41 +116,17 @@
     <t>other energy suppliers</t>
   </si>
   <si>
-    <t>Though some industry-owned timber land might be used to</t>
-  </si>
-  <si>
-    <t>produce biomass, but not all biomass is wood, and</t>
-  </si>
-  <si>
-    <t>much of the wood biomass is waste (bark, sawdust, chips, scrap,</t>
-  </si>
-  <si>
-    <t>and paper mill residues), which is not the main product</t>
-  </si>
-  <si>
-    <t>of the timber lands.  Accordingly, we assign timber land</t>
-  </si>
-  <si>
-    <t>ownership to "nonenergy industries" rather than assigning</t>
-  </si>
-  <si>
-    <t>a share to "biomass and biofuel suppliers."</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Fraction of Forest Owned (dimensionless)</t>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +150,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,20 +187,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -223,6 +211,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501315</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE80864-4194-43A9-AACA-30C653601507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2762250" y="152400"/>
+          <a:ext cx="5416215" cy="4229099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -301,6 +355,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -336,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,114 +599,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://usfs.maps.arcgis.com/apps/MapJournal/index.html?appid=0c0d40567089480684aedcceb88387eb" xr:uid="{3315A321-9227-4349-8D9B-23E7D2E0195B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -626,252 +662,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B3:B7)</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="B23">
+        <f>B11</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>29</v>
+      <c r="B24">
+        <f>B9</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7">
+        <f>SUM(B22:B24)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5">
-        <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>0.42384105960264901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Data!$B$22</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Data!$B$23</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Data!$B$24</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="5">
-        <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>0.52814569536423839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5">
-        <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>4.8013245033112585E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\FoFObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/land/fofobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D147A7C4-C222-7F4F-927D-090AE36AF6C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="19140" windowHeight="9280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -190,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -301,6 +314,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -336,6 +366,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,19 +558,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="8">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,94 +581,94 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -626,27 +676,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -654,7 +704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -662,7 +712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -670,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -678,7 +728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -686,7 +736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -694,7 +744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -702,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -710,7 +760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,7 +768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -726,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -734,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -742,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -750,7 +800,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -758,7 +808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -766,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -781,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -791,18 +841,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -811,7 +861,7 @@
         <v>0.42384105960264901</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -820,7 +870,7 @@
         <v>0.52814569536423839</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -829,7 +879,7 @@
         <v>4.8013245033112585E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -837,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -845,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -853,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -861,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -869,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>

--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/land/fofobe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/fofobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D147A7C4-C222-7F4F-927D-090AE36AF6C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863AE3C9-68C8-014B-86B6-4C7C34B9D87F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="19140" windowHeight="9280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
